--- a/docs/StructureDefinition-MyObservation.xlsx
+++ b/docs/StructureDefinition-MyObservation.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>04-Observation-CISSSF</t>
+    <t>Observation(CISSSF)</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-31T21:33:26+08:00</t>
+    <t>2022-08-03T14:01:00+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Example of a profile of Observation</t>
+    <t>Example of a profile of Observation(CISSSF)</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/docs/StructureDefinition-MyObservation.xlsx
+++ b/docs/StructureDefinition-MyObservation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-03T14:01:00+08:00</t>
+    <t>2022-08-07T11:52:30+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-MyObservation.xlsx
+++ b/docs/StructureDefinition-MyObservation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-07T11:52:30+08:00</t>
+    <t>2022-08-27T12:17:33+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Example of a profile of Observation(CISSSF)</t>
+    <t>Example of a profile of Observation(CISSSF)重要預後因子</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/docs/StructureDefinition-MyObservation.xlsx
+++ b/docs/StructureDefinition-MyObservation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-27T12:17:33+08:00</t>
+    <t>2022-08-27T19:57:01+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-MyObservation.xlsx
+++ b/docs/StructureDefinition-MyObservation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-27T19:57:01+08:00</t>
+    <t>2022-09-25T15:07:05+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-MyObservation.xlsx
+++ b/docs/StructureDefinition-MyObservation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-25T15:07:05+08:00</t>
+    <t>2022-10-08T22:29:42+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
